--- a/Analisis de Rendimiento/Graficos de Rendimiento.xlsx
+++ b/Analisis de Rendimiento/Graficos de Rendimiento.xlsx
@@ -11,9 +11,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -286,6 +283,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -532,6 +532,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-90C0-4815-8BD2-935F08EE689D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -541,11 +546,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="232860672"/>
-        <c:axId val="234984192"/>
+        <c:axId val="233491840"/>
+        <c:axId val="239432832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="232860672"/>
+        <c:axId val="233491840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -555,12 +560,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="234984192"/>
+        <c:crossAx val="239432832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="234984192"/>
+        <c:axId val="239432832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -571,7 +576,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232860672"/>
+        <c:crossAx val="233491840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -808,6 +813,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3CD9-4EF6-AC5D-36B1EF1EDDE8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -817,11 +827,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="235005440"/>
-        <c:axId val="235006976"/>
+        <c:axId val="239458560"/>
+        <c:axId val="239341568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="235005440"/>
+        <c:axId val="239458560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -831,12 +841,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="235006976"/>
+        <c:crossAx val="239341568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="235006976"/>
+        <c:axId val="239341568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -847,7 +857,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="235005440"/>
+        <c:crossAx val="239458560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1026,6 +1036,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F6B-4B42-9608-BFA1852D1AB7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1035,11 +1050,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="235235584"/>
-        <c:axId val="235237376"/>
+        <c:axId val="239361408"/>
+        <c:axId val="239363200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="235235584"/>
+        <c:axId val="239361408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1049,12 +1064,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="235237376"/>
+        <c:crossAx val="239363200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="235237376"/>
+        <c:axId val="239363200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1065,7 +1080,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="235235584"/>
+        <c:crossAx val="239361408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1243,6 +1258,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8097-4DCC-9BE3-A3064E223D9D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1252,11 +1272,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="235270144"/>
-        <c:axId val="235271680"/>
+        <c:axId val="239384064"/>
+        <c:axId val="239385600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="235270144"/>
+        <c:axId val="239384064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1266,12 +1286,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="235271680"/>
+        <c:crossAx val="239385600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="235271680"/>
+        <c:axId val="239385600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1282,7 +1302,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="235270144"/>
+        <c:crossAx val="239384064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1317,32 +1337,87 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>Polinomio</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.9208550838935276E-2"/>
+          <c:y val="0.1201197955357268"/>
+          <c:w val="0.86787676977579709"/>
+          <c:h val="0.70444082298918487"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet2!$B$1</c:f>
+              <c:f>Sheet2!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>evaluarMSucesivas</c:v>
+                  <c:v>evaluarRecursivaPar</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>[1]Sheet2!$A$2:$A$17</c:f>
+              <c:f>Sheet2!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1396,10 +1471,10 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>[1]Sheet2!$B$2:$B$17</c:f>
+              <c:f>Sheet2!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1416,52 +1491,57 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>110</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>140</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>218</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>344</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>593</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1328</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3955</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5444</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8942</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12481</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15375</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2349-4C4E-ADDC-8D3CC3BDBAA3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet2!$C$1</c:f>
+              <c:f>Sheet2!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1470,12 +1550,21 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>[1]Sheet2!$A$2:$A$17</c:f>
+              <c:f>Sheet2!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1529,10 +1618,10 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>[1]Sheet2!$C$2:$C$17</c:f>
+              <c:f>Sheet2!$C$2:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1540,7 +1629,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1549,42 +1638,56 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>93</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>156</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>219</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2349-4C4E-ADDC-8D3CC3BDBAA3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet2!$D$1</c:f>
+              <c:f>Sheet2!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>evaluarRecursivaPar</c:v>
+                  <c:v>evaluarPow</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>[1]Sheet2!$A$2:$A$17</c:f>
+              <c:f>Sheet2!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1638,10 +1741,10 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>[1]Sheet2!$D$2:$D$17</c:f>
+              <c:f>Sheet2!$D$2:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1655,39 +1758,83 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>125</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2349-4C4E-ADDC-8D3CC3BDBAA3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet2!$E$1</c:f>
+              <c:f>Sheet2!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>evaluarProgDinamica</c:v>
+                  <c:v>evaluarMejorada</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>[1]Sheet2!$A$2:$A$17</c:f>
+              <c:f>Sheet2!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1741,10 +1888,10 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>[1]Sheet2!$E$2:$E$17</c:f>
+              <c:f>Sheet2!$E$2:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1758,69 +1905,83 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>109</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>140</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>203</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>328</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>593</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1391</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3722</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5557</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8492</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12484</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15229</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2349-4C4E-ADDC-8D3CC3BDBAA3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
+          <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet2!$F$1</c:f>
+              <c:f>Sheet2!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>evaluarMejorada</c:v>
+                  <c:v>evaluarMSucesivas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>[1]Sheet2!$A$2:$A$17</c:f>
+              <c:f>Sheet2!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1874,10 +2035,10 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>[1]Sheet2!$F$2:$F$17</c:f>
+              <c:f>Sheet2!$F$2:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1894,66 +2055,80 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>337</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29</c:v>
+                  <c:v>616</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35</c:v>
+                  <c:v>1387</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50</c:v>
+                  <c:v>4071</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45</c:v>
+                  <c:v>5487</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>129</c:v>
+                  <c:v>9496</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>130</c:v>
+                  <c:v>12551</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>82</c:v>
+                  <c:v>15987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2349-4C4E-ADDC-8D3CC3BDBAA3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
+          <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet2!$G$1</c:f>
+              <c:f>Sheet2!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>evaluarHorner</c:v>
+                  <c:v>evaluarProgDinamica</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>[1]Sheet2!$A$2:$A$17</c:f>
+              <c:f>Sheet2!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2007,10 +2182,10 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>[1]Sheet2!$G$2:$G$17</c:f>
+              <c:f>Sheet2!$G$2:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2027,66 +2202,82 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15</c:v>
+                  <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18</c:v>
+                  <c:v>592</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34</c:v>
+                  <c:v>1557</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42</c:v>
+                  <c:v>4015</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>53</c:v>
+                  <c:v>5855</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>137</c:v>
+                  <c:v>8673</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>137</c:v>
+                  <c:v>12678</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>70</c:v>
+                  <c:v>16138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2349-4C4E-ADDC-8D3CC3BDBAA3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet2!$H$1</c:f>
+              <c:f>Sheet2!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>evaluarPow</c:v>
+                  <c:v>evaluarHorner</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>[1]Sheet2!$A$2:$A$17</c:f>
+              <c:f>Sheet2!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2140,10 +2331,10 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>[1]Sheet2!$H$2:$H$17</c:f>
+              <c:f>Sheet2!$H$2:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2166,39 +2357,44 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>47</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>135</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>78</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2349-4C4E-ADDC-8D3CC3BDBAA3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2208,61 +2404,764 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="235430656"/>
-        <c:axId val="235432192"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="235430656"/>
+        <c:axId val="239633152"/>
+        <c:axId val="239634688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="239633152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="235432192"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="239634688"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="235432192"/>
+        <c:axId val="239634688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="235430656"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="239633152"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2394,23 +3293,21 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="1 Gráfico"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2425,409 +3322,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>evaluarMSucesivas</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>evaluarRecursiva</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>evaluarRecursivaPar</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>evaluarProgDinamica</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>evaluarMejorada</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>evaluarHorner</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>evaluarPow</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>100</v>
-          </cell>
-          <cell r="B2">
-            <v>0</v>
-          </cell>
-          <cell r="C2">
-            <v>0</v>
-          </cell>
-          <cell r="D2">
-            <v>0</v>
-          </cell>
-          <cell r="E2">
-            <v>0</v>
-          </cell>
-          <cell r="F2">
-            <v>0</v>
-          </cell>
-          <cell r="G2">
-            <v>0</v>
-          </cell>
-          <cell r="H2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>300</v>
-          </cell>
-          <cell r="B3">
-            <v>0</v>
-          </cell>
-          <cell r="C3">
-            <v>16</v>
-          </cell>
-          <cell r="D3">
-            <v>0</v>
-          </cell>
-          <cell r="E3">
-            <v>0</v>
-          </cell>
-          <cell r="F3">
-            <v>0</v>
-          </cell>
-          <cell r="G3">
-            <v>0</v>
-          </cell>
-          <cell r="H3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>1000</v>
-          </cell>
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-          <cell r="C4">
-            <v>0</v>
-          </cell>
-          <cell r="D4">
-            <v>0</v>
-          </cell>
-          <cell r="E4">
-            <v>0</v>
-          </cell>
-          <cell r="F4">
-            <v>0</v>
-          </cell>
-          <cell r="G4">
-            <v>0</v>
-          </cell>
-          <cell r="H4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>2000</v>
-          </cell>
-          <cell r="B5">
-            <v>0</v>
-          </cell>
-          <cell r="C5">
-            <v>0</v>
-          </cell>
-          <cell r="D5">
-            <v>15</v>
-          </cell>
-          <cell r="E5">
-            <v>16</v>
-          </cell>
-          <cell r="F5">
-            <v>0</v>
-          </cell>
-          <cell r="G5">
-            <v>0</v>
-          </cell>
-          <cell r="H5">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>5000</v>
-          </cell>
-          <cell r="B6">
-            <v>47</v>
-          </cell>
-          <cell r="C6">
-            <v>49</v>
-          </cell>
-          <cell r="D6">
-            <v>47</v>
-          </cell>
-          <cell r="E6">
-            <v>32</v>
-          </cell>
-          <cell r="F6">
-            <v>0</v>
-          </cell>
-          <cell r="G6">
-            <v>0</v>
-          </cell>
-          <cell r="H6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>8000</v>
-          </cell>
-          <cell r="B7">
-            <v>110</v>
-          </cell>
-          <cell r="C7">
-            <v>93</v>
-          </cell>
-          <cell r="D7">
-            <v>125</v>
-          </cell>
-          <cell r="E7">
-            <v>109</v>
-          </cell>
-          <cell r="F7">
-            <v>0</v>
-          </cell>
-          <cell r="G7">
-            <v>0</v>
-          </cell>
-          <cell r="H7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>10000</v>
-          </cell>
-          <cell r="B8">
-            <v>140</v>
-          </cell>
-          <cell r="C8">
-            <v>156</v>
-          </cell>
-          <cell r="E8">
-            <v>140</v>
-          </cell>
-          <cell r="F8">
-            <v>15</v>
-          </cell>
-          <cell r="G8">
-            <v>15</v>
-          </cell>
-          <cell r="H8">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>12000</v>
-          </cell>
-          <cell r="B9">
-            <v>218</v>
-          </cell>
-          <cell r="C9">
-            <v>219</v>
-          </cell>
-          <cell r="E9">
-            <v>203</v>
-          </cell>
-          <cell r="F9">
-            <v>15</v>
-          </cell>
-          <cell r="G9">
-            <v>15</v>
-          </cell>
-          <cell r="H9">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>15000</v>
-          </cell>
-          <cell r="B10">
-            <v>344</v>
-          </cell>
-          <cell r="E10">
-            <v>328</v>
-          </cell>
-          <cell r="F10">
-            <v>18</v>
-          </cell>
-          <cell r="G10">
-            <v>15</v>
-          </cell>
-          <cell r="H10">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>20000</v>
-          </cell>
-          <cell r="B11">
-            <v>593</v>
-          </cell>
-          <cell r="E11">
-            <v>593</v>
-          </cell>
-          <cell r="F11">
-            <v>29</v>
-          </cell>
-          <cell r="G11">
-            <v>18</v>
-          </cell>
-          <cell r="H11">
-            <v>27</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>30000</v>
-          </cell>
-          <cell r="B12">
-            <v>1328</v>
-          </cell>
-          <cell r="E12">
-            <v>1391</v>
-          </cell>
-          <cell r="F12">
-            <v>35</v>
-          </cell>
-          <cell r="G12">
-            <v>34</v>
-          </cell>
-          <cell r="H12">
-            <v>31</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>50000</v>
-          </cell>
-          <cell r="B13">
-            <v>3955</v>
-          </cell>
-          <cell r="E13">
-            <v>3722</v>
-          </cell>
-          <cell r="F13">
-            <v>50</v>
-          </cell>
-          <cell r="G13">
-            <v>42</v>
-          </cell>
-          <cell r="H13">
-            <v>47</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>60000</v>
-          </cell>
-          <cell r="B14">
-            <v>5444</v>
-          </cell>
-          <cell r="E14">
-            <v>5557</v>
-          </cell>
-          <cell r="F14">
-            <v>45</v>
-          </cell>
-          <cell r="G14">
-            <v>53</v>
-          </cell>
-          <cell r="H14">
-            <v>47</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>75000</v>
-          </cell>
-          <cell r="B15">
-            <v>8942</v>
-          </cell>
-          <cell r="E15">
-            <v>8492</v>
-          </cell>
-          <cell r="F15">
-            <v>129</v>
-          </cell>
-          <cell r="G15">
-            <v>137</v>
-          </cell>
-          <cell r="H15">
-            <v>135</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>90000</v>
-          </cell>
-          <cell r="B16">
-            <v>12481</v>
-          </cell>
-          <cell r="E16">
-            <v>12484</v>
-          </cell>
-          <cell r="F16">
-            <v>130</v>
-          </cell>
-          <cell r="G16">
-            <v>137</v>
-          </cell>
-          <cell r="H16">
-            <v>78</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>100000</v>
-          </cell>
-          <cell r="B17">
-            <v>15375</v>
-          </cell>
-          <cell r="E17">
-            <v>15229</v>
-          </cell>
-          <cell r="F17">
-            <v>82</v>
-          </cell>
-          <cell r="G17">
-            <v>70</v>
-          </cell>
-          <cell r="H17">
-            <v>78</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3119,7 +3613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="N87" sqref="N87"/>
     </sheetView>
   </sheetViews>
@@ -3859,8 +4353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3880,25 +4374,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3935,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="10">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D3" s="10">
         <v>0</v>
@@ -3990,10 +4484,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="10">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E5" s="10">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F5" s="10">
         <v>0</v>
@@ -4010,22 +4504,22 @@
         <v>5000</v>
       </c>
       <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10">
         <v>47</v>
       </c>
-      <c r="C6" s="10">
-        <v>49</v>
-      </c>
       <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
         <v>47</v>
       </c>
-      <c r="E6" s="10">
-        <v>32</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
       <c r="G6" s="10">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H6" s="10">
         <v>0</v>
@@ -4036,22 +4530,22 @@
         <v>8000</v>
       </c>
       <c r="B7" s="10">
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="C7" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D7" s="10">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="E7" s="10">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="F7" s="10">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="G7" s="10">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="H7" s="10">
         <v>0</v>
@@ -4062,23 +4556,25 @@
         <v>10000</v>
       </c>
       <c r="B8" s="10">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="C8" s="10">
-        <v>156</v>
-      </c>
-      <c r="D8" s="10"/>
+        <v>141</v>
+      </c>
+      <c r="D8" s="10">
+        <v>10</v>
+      </c>
       <c r="E8" s="10">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="F8" s="10">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c r="G8" s="10">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c r="H8" s="10">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4086,20 +4582,22 @@
         <v>12000</v>
       </c>
       <c r="B9" s="10">
-        <v>218</v>
+        <v>17</v>
       </c>
       <c r="C9" s="10">
-        <v>219</v>
-      </c>
-      <c r="D9" s="10"/>
+        <v>209</v>
+      </c>
+      <c r="D9" s="10">
+        <v>16</v>
+      </c>
       <c r="E9" s="10">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="F9" s="10">
-        <v>15</v>
+        <v>316</v>
       </c>
       <c r="G9" s="10">
-        <v>15</v>
+        <v>236</v>
       </c>
       <c r="H9" s="10">
         <v>16</v>
@@ -4110,21 +4608,23 @@
         <v>15000</v>
       </c>
       <c r="B10" s="10">
-        <v>344</v>
+        <v>17</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="D10" s="10">
+        <v>16</v>
+      </c>
       <c r="E10" s="10">
-        <v>328</v>
+        <v>17</v>
       </c>
       <c r="F10" s="10">
-        <v>18</v>
+        <v>337</v>
       </c>
       <c r="G10" s="10">
-        <v>15</v>
+        <v>399</v>
       </c>
       <c r="H10" s="10">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4132,21 +4632,23 @@
         <v>20000</v>
       </c>
       <c r="B11" s="10">
-        <v>593</v>
+        <v>18</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="D11" s="10">
+        <v>16</v>
+      </c>
       <c r="E11" s="10">
-        <v>593</v>
+        <v>18</v>
       </c>
       <c r="F11" s="10">
-        <v>29</v>
+        <v>616</v>
       </c>
       <c r="G11" s="10">
-        <v>18</v>
+        <v>592</v>
       </c>
       <c r="H11" s="10">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4154,21 +4656,23 @@
         <v>30000</v>
       </c>
       <c r="B12" s="10">
-        <v>1328</v>
+        <v>19</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="D12" s="10">
+        <v>16</v>
+      </c>
       <c r="E12" s="10">
-        <v>1391</v>
+        <v>17</v>
       </c>
       <c r="F12" s="10">
-        <v>35</v>
+        <v>1387</v>
       </c>
       <c r="G12" s="10">
-        <v>34</v>
+        <v>1557</v>
       </c>
       <c r="H12" s="10">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4176,21 +4680,23 @@
         <v>50000</v>
       </c>
       <c r="B13" s="10">
-        <v>3955</v>
+        <v>32</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="D13" s="10">
+        <v>31</v>
+      </c>
       <c r="E13" s="10">
-        <v>3722</v>
+        <v>30</v>
       </c>
       <c r="F13" s="10">
-        <v>50</v>
+        <v>4071</v>
       </c>
       <c r="G13" s="10">
-        <v>42</v>
+        <v>4015</v>
       </c>
       <c r="H13" s="10">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4198,21 +4704,23 @@
         <v>60000</v>
       </c>
       <c r="B14" s="10">
-        <v>5444</v>
+        <v>60</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="D14" s="10">
+        <v>63</v>
+      </c>
       <c r="E14" s="10">
-        <v>5557</v>
+        <v>58</v>
       </c>
       <c r="F14" s="10">
-        <v>45</v>
+        <v>5487</v>
       </c>
       <c r="G14" s="10">
-        <v>53</v>
+        <v>5855</v>
       </c>
       <c r="H14" s="10">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4220,21 +4728,23 @@
         <v>75000</v>
       </c>
       <c r="B15" s="10">
-        <v>8942</v>
+        <v>73</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
+      <c r="D15" s="10">
+        <v>78</v>
+      </c>
       <c r="E15" s="10">
-        <v>8492</v>
+        <v>71</v>
       </c>
       <c r="F15" s="10">
-        <v>82</v>
+        <v>9496</v>
       </c>
       <c r="G15" s="10">
-        <v>70</v>
+        <v>8673</v>
       </c>
       <c r="H15" s="10">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4242,21 +4752,23 @@
         <v>90000</v>
       </c>
       <c r="B16" s="10">
-        <v>12481</v>
+        <v>80</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="D16" s="10">
+        <v>84</v>
+      </c>
       <c r="E16" s="10">
-        <v>12484</v>
+        <v>80</v>
       </c>
       <c r="F16" s="10">
-        <v>129</v>
+        <v>12551</v>
       </c>
       <c r="G16" s="10">
-        <v>137</v>
+        <v>12678</v>
       </c>
       <c r="H16" s="10">
-        <v>133</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4264,21 +4776,23 @@
         <v>100000</v>
       </c>
       <c r="B17" s="10">
-        <v>15375</v>
+        <v>83</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="D17" s="10">
+        <v>88</v>
+      </c>
       <c r="E17" s="10">
-        <v>15229</v>
+        <v>85</v>
       </c>
       <c r="F17" s="10">
-        <v>130</v>
+        <v>15987</v>
       </c>
       <c r="G17" s="10">
-        <v>137</v>
+        <v>16138</v>
       </c>
       <c r="H17" s="10">
-        <v>135</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
